--- a/dps_dashboard/data/2023/school_stats_data/HS_poc_per_school_23.xlsx
+++ b/dps_dashboard/data/2023/school_stats_data/HS_poc_per_school_23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenwalker/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603FCE99-8941-CD44-AC98-9A58040D378F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAFA056-6908-B040-90F7-29C37DBF344A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="1020" windowWidth="25300" windowHeight="15640" xr2:uid="{8A77730F-63B3-7A4A-B171-15DB83AB20AC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>place</t>
   </si>
@@ -65,15 +65,9 @@
     <t>J.D. Clement Early College</t>
   </si>
   <si>
-    <t>Durham School of Technology</t>
-  </si>
-  <si>
     <t>Middle College High</t>
   </si>
   <si>
-    <t>Holton Career and Resource Center</t>
-  </si>
-  <si>
     <t>Northern High School</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
   </si>
   <si>
     <t>Lakeview Secondary School</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -140,18 +131,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -194,24 +176,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF3A71A-D00B-3947-98E9-2D290A6041D4}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,131 +542,111 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>71.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>74.400000000000006</v>
       </c>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>96.2</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>92.6</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>95.4</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="H8" s="2"/>
+      <c r="B8" s="12">
+        <v>59.7</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13">
-        <v>59.7</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="H9" s="1"/>
+      <c r="B9" s="10">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="11">
+        <v>97.4</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11">
-        <v>80</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="12">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="12">
-        <v>97.4</v>
-      </c>
-      <c r="C12" s="3"/>
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="13">
-        <v>100</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="10">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
